--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H2">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I2">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J2">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.671786248544878</v>
+        <v>1.149655</v>
       </c>
       <c r="N2">
-        <v>0.671786248544878</v>
+        <v>3.448965</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4364852193075735</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4770693178102337</v>
       </c>
       <c r="Q2">
-        <v>2.06135315831</v>
+        <v>3.786149231041666</v>
       </c>
       <c r="R2">
-        <v>2.06135315831</v>
+        <v>34.075343079375</v>
       </c>
       <c r="S2">
-        <v>0.1729775162446332</v>
+        <v>0.07052953429122402</v>
       </c>
       <c r="T2">
-        <v>0.1729775162446332</v>
+        <v>0.07968986533091439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.71363574297418</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H3">
-        <v>2.71363574297418</v>
+        <v>9.879875</v>
       </c>
       <c r="I3">
-        <v>0.1529748071626519</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J3">
-        <v>0.1529748071626519</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.671786248544878</v>
+        <v>0.8120446666666666</v>
       </c>
       <c r="N3">
-        <v>0.671786248544878</v>
+        <v>2.436134</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3083059651961201</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3369720439245733</v>
       </c>
       <c r="Q3">
-        <v>1.822983175689917</v>
+        <v>2.674299933694444</v>
       </c>
       <c r="R3">
-        <v>1.822983175689917</v>
+        <v>24.06869940325</v>
       </c>
       <c r="S3">
-        <v>0.1529748071626519</v>
+        <v>0.04981766892126094</v>
       </c>
       <c r="T3">
-        <v>0.1529748071626519</v>
+        <v>0.05628795606451843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.82161747845484</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H4">
-        <v>4.82161747845484</v>
+        <v>9.879875</v>
       </c>
       <c r="I4">
-        <v>0.2718072998147854</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J4">
-        <v>0.2718072998147854</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.671786248544878</v>
+        <v>0.6721925</v>
       </c>
       <c r="N4">
-        <v>0.671786248544878</v>
+        <v>1.344385</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2552088154963064</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1859586382651929</v>
       </c>
       <c r="Q4">
-        <v>3.239096317769591</v>
+        <v>2.213725958645833</v>
       </c>
       <c r="R4">
-        <v>3.239096317769591</v>
+        <v>13.282355751875</v>
       </c>
       <c r="S4">
-        <v>0.2718072998147854</v>
+        <v>0.04123795745597906</v>
       </c>
       <c r="T4">
-        <v>0.2718072998147854</v>
+        <v>0.03106261142194871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.19328185046771</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H5">
-        <v>5.19328185046771</v>
+        <v>8.517274</v>
       </c>
       <c r="I5">
-        <v>0.2927590011568317</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J5">
-        <v>0.2927590011568317</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.671786248544878</v>
+        <v>1.149655</v>
       </c>
       <c r="N5">
-        <v>0.671786248544878</v>
+        <v>3.448965</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4364852193075735</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.4770693178102337</v>
       </c>
       <c r="Q5">
-        <v>3.488775331961905</v>
+        <v>3.263975546823333</v>
       </c>
       <c r="R5">
-        <v>3.488775331961905</v>
+        <v>29.37577992141</v>
       </c>
       <c r="S5">
-        <v>0.2927590011568317</v>
+        <v>0.0608023247916346</v>
       </c>
       <c r="T5">
-        <v>0.2927590011568317</v>
+        <v>0.06869929205040534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.839091333333334</v>
+      </c>
+      <c r="H6">
+        <v>8.517274</v>
+      </c>
+      <c r="I6">
+        <v>0.1392998482012507</v>
+      </c>
+      <c r="J6">
+        <v>0.1440027465311282</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.8120446666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.436134</v>
+      </c>
+      <c r="O6">
+        <v>0.3083059651961201</v>
+      </c>
+      <c r="P6">
+        <v>0.3369720439245733</v>
+      </c>
+      <c r="Q6">
+        <v>2.305468975412889</v>
+      </c>
+      <c r="R6">
+        <v>20.749220778716</v>
+      </c>
+      <c r="S6">
+        <v>0.0429469741513596</v>
+      </c>
+      <c r="T6">
+        <v>0.04852489982934654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.94210131449623</v>
-      </c>
-      <c r="H6">
-        <v>1.94210131449623</v>
-      </c>
-      <c r="I6">
-        <v>0.109481375621098</v>
-      </c>
-      <c r="J6">
-        <v>0.109481375621098</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.671786248544878</v>
-      </c>
-      <c r="N6">
-        <v>0.671786248544878</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.304676956359499</v>
-      </c>
-      <c r="R6">
-        <v>1.304676956359499</v>
-      </c>
-      <c r="S6">
-        <v>0.109481375621098</v>
-      </c>
-      <c r="T6">
-        <v>0.109481375621098</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.839091333333334</v>
+      </c>
+      <c r="H7">
+        <v>8.517274</v>
+      </c>
+      <c r="I7">
+        <v>0.1392998482012507</v>
+      </c>
+      <c r="J7">
+        <v>0.1440027465311282</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6721925</v>
+      </c>
+      <c r="N7">
+        <v>1.344385</v>
+      </c>
+      <c r="O7">
+        <v>0.2552088154963064</v>
+      </c>
+      <c r="P7">
+        <v>0.1859586382651929</v>
+      </c>
+      <c r="Q7">
+        <v>1.908415901081667</v>
+      </c>
+      <c r="R7">
+        <v>11.45049540649</v>
+      </c>
+      <c r="S7">
+        <v>0.03555054925825647</v>
+      </c>
+      <c r="T7">
+        <v>0.02677855465137634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.486612666666666</v>
+      </c>
+      <c r="H8">
+        <v>19.459838</v>
+      </c>
+      <c r="I8">
+        <v>0.3182652664949994</v>
+      </c>
+      <c r="J8">
+        <v>0.3290102113717155</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.149655</v>
+      </c>
+      <c r="N8">
+        <v>3.448965</v>
+      </c>
+      <c r="O8">
+        <v>0.4364852193075735</v>
+      </c>
+      <c r="P8">
+        <v>0.4770693178102337</v>
+      </c>
+      <c r="Q8">
+        <v>7.457366685296665</v>
+      </c>
+      <c r="R8">
+        <v>67.11630016766999</v>
+      </c>
+      <c r="S8">
+        <v>0.1389180846440531</v>
+      </c>
+      <c r="T8">
+        <v>0.1569606770917051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.486612666666666</v>
+      </c>
+      <c r="H9">
+        <v>19.459838</v>
+      </c>
+      <c r="I9">
+        <v>0.3182652664949994</v>
+      </c>
+      <c r="J9">
+        <v>0.3290102113717155</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8120446666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.436134</v>
+      </c>
+      <c r="O9">
+        <v>0.3083059651961201</v>
+      </c>
+      <c r="P9">
+        <v>0.3369720439245733</v>
+      </c>
+      <c r="Q9">
+        <v>5.26741922069911</v>
+      </c>
+      <c r="R9">
+        <v>47.406772986292</v>
+      </c>
+      <c r="S9">
+        <v>0.09812308017514115</v>
+      </c>
+      <c r="T9">
+        <v>0.1108672433979829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.486612666666666</v>
+      </c>
+      <c r="H10">
+        <v>19.459838</v>
+      </c>
+      <c r="I10">
+        <v>0.3182652664949994</v>
+      </c>
+      <c r="J10">
+        <v>0.3290102113717155</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6721925</v>
+      </c>
+      <c r="N10">
+        <v>1.344385</v>
+      </c>
+      <c r="O10">
+        <v>0.2552088154963064</v>
+      </c>
+      <c r="P10">
+        <v>0.1859586382651929</v>
+      </c>
+      <c r="Q10">
+        <v>4.360252384938333</v>
+      </c>
+      <c r="R10">
+        <v>26.16151430963</v>
+      </c>
+      <c r="S10">
+        <v>0.08122410167580507</v>
+      </c>
+      <c r="T10">
+        <v>0.0611822908820275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H11">
+        <v>17.295927</v>
+      </c>
+      <c r="I11">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J11">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.149655</v>
+      </c>
+      <c r="N11">
+        <v>3.448965</v>
+      </c>
+      <c r="O11">
+        <v>0.4364852193075735</v>
+      </c>
+      <c r="P11">
+        <v>0.4770693178102337</v>
+      </c>
+      <c r="Q11">
+        <v>6.628116318394999</v>
+      </c>
+      <c r="R11">
+        <v>59.65304686555499</v>
+      </c>
+      <c r="S11">
+        <v>0.1234705577191014</v>
+      </c>
+      <c r="T11">
+        <v>0.1395068351981504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H12">
+        <v>17.295927</v>
+      </c>
+      <c r="I12">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J12">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.8120446666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.436134</v>
+      </c>
+      <c r="O12">
+        <v>0.3083059651961201</v>
+      </c>
+      <c r="P12">
+        <v>0.3369720439245733</v>
+      </c>
+      <c r="Q12">
+        <v>4.681688425135333</v>
+      </c>
+      <c r="R12">
+        <v>42.13519582621799</v>
+      </c>
+      <c r="S12">
+        <v>0.08721190956082926</v>
+      </c>
+      <c r="T12">
+        <v>0.0985389368864604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H13">
+        <v>17.295927</v>
+      </c>
+      <c r="I13">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J13">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6721925</v>
+      </c>
+      <c r="N13">
+        <v>1.344385</v>
+      </c>
+      <c r="O13">
+        <v>0.2552088154963064</v>
+      </c>
+      <c r="P13">
+        <v>0.1859586382651929</v>
+      </c>
+      <c r="Q13">
+        <v>3.8753974699825</v>
+      </c>
+      <c r="R13">
+        <v>23.252384819895</v>
+      </c>
+      <c r="S13">
+        <v>0.07219207750985913</v>
+      </c>
+      <c r="T13">
+        <v>0.05437889240333416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.996847</v>
+      </c>
+      <c r="H14">
+        <v>3.993694</v>
+      </c>
+      <c r="I14">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J14">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.149655</v>
+      </c>
+      <c r="N14">
+        <v>3.448965</v>
+      </c>
+      <c r="O14">
+        <v>0.4364852193075735</v>
+      </c>
+      <c r="P14">
+        <v>0.4770693178102337</v>
+      </c>
+      <c r="Q14">
+        <v>2.295685137785</v>
+      </c>
+      <c r="R14">
+        <v>13.77411082671</v>
+      </c>
+      <c r="S14">
+        <v>0.04276471786156034</v>
+      </c>
+      <c r="T14">
+        <v>0.03221264813905852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.996847</v>
+      </c>
+      <c r="H15">
+        <v>3.993694</v>
+      </c>
+      <c r="I15">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J15">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.8120446666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.436134</v>
+      </c>
+      <c r="O15">
+        <v>0.3083059651961201</v>
+      </c>
+      <c r="P15">
+        <v>0.3369720439245733</v>
+      </c>
+      <c r="Q15">
+        <v>1.621528956499333</v>
+      </c>
+      <c r="R15">
+        <v>9.729173738996</v>
+      </c>
+      <c r="S15">
+        <v>0.03020633238752914</v>
+      </c>
+      <c r="T15">
+        <v>0.02275300774626509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.996847</v>
+      </c>
+      <c r="H16">
+        <v>3.993694</v>
+      </c>
+      <c r="I16">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J16">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6721925</v>
+      </c>
+      <c r="N16">
+        <v>1.344385</v>
+      </c>
+      <c r="O16">
+        <v>0.2552088154963064</v>
+      </c>
+      <c r="P16">
+        <v>0.1859586382651929</v>
+      </c>
+      <c r="Q16">
+        <v>1.3422655770475</v>
+      </c>
+      <c r="R16">
+        <v>5.36906230819</v>
+      </c>
+      <c r="S16">
+        <v>0.02500412959640666</v>
+      </c>
+      <c r="T16">
+        <v>0.01255628890650621</v>
       </c>
     </row>
   </sheetData>
